--- a/Template Data.xlsx
+++ b/Template Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Restoran" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Nama</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Kategori</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Id_Restoran</t>
   </si>
   <si>
@@ -74,6 +77,39 @@
   </si>
   <si>
     <t>Tax</t>
+  </si>
+  <si>
+    <t>Makanan utama</t>
+  </si>
+  <si>
+    <t>Makanan penutup</t>
+  </si>
+  <si>
+    <t>cemila</t>
+  </si>
+  <si>
+    <t>minuman</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Coffee Shop</t>
   </si>
 </sst>
 </file>
@@ -130,7 +166,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -223,56 +277,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table227" displayName="Table227" ref="A1:G90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table227" displayName="Table227" ref="A1:G90" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:G90"/>
   <sortState ref="A2:G90">
     <sortCondition ref="C3:C92"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Id" dataDxfId="6"/>
-    <tableColumn id="2" name="Nama" dataDxfId="5"/>
-    <tableColumn id="3" name="No_Telepon" dataDxfId="4"/>
-    <tableColumn id="4" name="Lokasi" dataDxfId="3"/>
-    <tableColumn id="5" name="Deskripsi" dataDxfId="2"/>
-    <tableColumn id="6" name="Tax" dataDxfId="1"/>
-    <tableColumn id="7" name="Rate" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" name="Nama" dataDxfId="11"/>
+    <tableColumn id="3" name="No_Telepon" dataDxfId="10"/>
+    <tableColumn id="4" name="Lokasi" dataDxfId="9"/>
+    <tableColumn id="5" name="Deskripsi" dataDxfId="8"/>
+    <tableColumn id="6" name="Tax" dataDxfId="7"/>
+    <tableColumn id="7" name="Rate" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:J90" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:J90" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:J90"/>
   <sortState ref="A2:G90">
     <sortCondition ref="C3:C92"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Nama" dataDxfId="14"/>
-    <tableColumn id="3" name="Harga" dataDxfId="15"/>
-    <tableColumn id="4" name="Id_Restoran" dataDxfId="25"/>
-    <tableColumn id="5" name="Jenis" dataDxfId="24"/>
-    <tableColumn id="6" name="Kategori" dataDxfId="23"/>
-    <tableColumn id="7" name="Deskripsi" dataDxfId="22"/>
-    <tableColumn id="8" name="Id_Photo" dataDxfId="21"/>
-    <tableColumn id="9" name="Rate" dataDxfId="20"/>
-    <tableColumn id="10" name="Jml_Tested" dataDxfId="19"/>
+    <tableColumn id="1" name="Id" dataDxfId="22"/>
+    <tableColumn id="2" name="Nama" dataDxfId="20"/>
+    <tableColumn id="3" name="Harga" dataDxfId="21"/>
+    <tableColumn id="4" name="Id_Restoran" dataDxfId="31"/>
+    <tableColumn id="5" name="Jenis" dataDxfId="30"/>
+    <tableColumn id="6" name="Kategori" dataDxfId="29"/>
+    <tableColumn id="7" name="Deskripsi" dataDxfId="28"/>
+    <tableColumn id="8" name="Id_Photo" dataDxfId="27"/>
+    <tableColumn id="9" name="Rate" dataDxfId="26"/>
+    <tableColumn id="10" name="Jml_Tested" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L2:L7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="L2:L7"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Jenis" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="L9:L16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="L9:L16"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Kategori" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C90"/>
   <sortState ref="A4:G92">
     <sortCondition ref="C3:C92"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id_Paket" dataDxfId="9"/>
-    <tableColumn id="2" name="Id_Menu" dataDxfId="11"/>
-    <tableColumn id="3" name="Opsional" dataDxfId="10"/>
+    <tableColumn id="1" name="Id_Paket" dataDxfId="15"/>
+    <tableColumn id="2" name="Id_Menu" dataDxfId="17"/>
+    <tableColumn id="3" name="Opsional" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -562,25 +636,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -955,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,12 +1048,13 @@
     <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -988,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -997,107 +1072,149 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -1553,8 +1670,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1581,13 +1700,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
